--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -100,55 +97,58 @@
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>safety</t>
   </si>
   <si>
     <t>protect</t>
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -631,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9393939393939394</v>
@@ -731,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -781,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5873015873015873</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C8">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="D8">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -881,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4476744186046512</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C9">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.9069767441860465</v>
@@ -927,32 +927,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>123</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.9014084507042254</v>
@@ -978,7 +954,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.8936170212765957</v>
@@ -1004,7 +980,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1030,7 +1006,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.890625</v>
@@ -1056,16 +1032,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1077,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1103,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1129,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.8584905660377359</v>
+        <v>0.8625</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="M17">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1155,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1181,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1207,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1233,12 +1209,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.7916666666666666</v>
@@ -1264,16 +1240,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.7714285714285715</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1285,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.7617647058823529</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L23">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1311,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.7288135593220338</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1337,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.725</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1363,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.7238493723849372</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="M26">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1389,12 +1365,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.6808510638297872</v>
@@ -1420,16 +1396,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.676923076923077</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1441,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L29">
         <v>43</v>
       </c>
-      <c r="K29">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L29">
-        <v>45</v>
-      </c>
       <c r="M29">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1467,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5955056179775281</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1493,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4931506849315068</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1519,33 +1495,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K32">
-        <v>0.4743589743589743</v>
-      </c>
-      <c r="L32">
-        <v>37</v>
-      </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>41</v>
+      <c r="K33">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L33">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
